--- a/Project Assets/Burndown Chart for SudokuPlus.xlsx
+++ b/Project Assets/Burndown Chart for SudokuPlus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="471" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="942" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="1" state="visible" r:id="rId2"/>
@@ -98,18 +98,19 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
@@ -253,7 +254,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400">
+              <a:rPr b="1" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -296,7 +297,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="7"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -362,7 +363,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="7"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -417,7 +418,29 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="7"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -428,11 +451,11 @@
           </c:dLbls>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50048735"/>
-        <c:axId val="41994389"/>
+        <c:axId val="33884473"/>
+        <c:axId val="73058807"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50048735"/>
+        <c:axId val="33884473"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +471,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -472,14 +495,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41994389"/>
+        <c:crossAx val="73058807"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41994389"/>
+        <c:axId val="73058807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +528,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -526,7 +549,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="50048735"/>
+        <c:crossAx val="33884473"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -567,15 +590,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>305280</xdr:colOff>
+      <xdr:colOff>331920</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -583,8 +606,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="27000" y="0"/>
-        <a:ext cx="8679240" cy="6303240"/>
+        <a:off x="54000" y="0"/>
+        <a:ext cx="8678880" cy="6302880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -600,7 +623,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -628,7 +651,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H9"/>
